--- a/data/trans_camb/P52_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,13</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,81</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-27,64</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,61</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 32,01</t>
+          <t>0,87; 8,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 15,47</t>
+          <t>-0,5; 7,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 0,81</t>
+          <t>-1,79; 3,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,27; -14,12</t>
+          <t>-4,6; 0,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 11,66</t>
+          <t>0,58; 5,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,35; -3,59</t>
+          <t>-1,74; 3,38</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>70,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,92%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,81%</t>
+          <t>-24,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,92%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 75,31</t>
+          <t>9,97; 166,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 33,79</t>
+          <t>-10,02; 147,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 0,92</t>
+          <t>-19,17; 61,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,98; -23,61</t>
+          <t>-48,65; 8,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 21,26</t>
+          <t>5,58; 81,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -7,14</t>
+          <t>-22,7; 56,1</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-21,35</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,73</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 23,35</t>
+          <t>-1,62; 6,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -2,73</t>
+          <t>-4,97; 3,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 27,16</t>
+          <t>-3,69; 3,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 17,06</t>
+          <t>-3,22; 3,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 21,33</t>
+          <t>-1,51; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 3,4</t>
+          <t>-2,79; 2,93</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,05%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,95%</t>
+          <t>-1,42%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 54,04</t>
+          <t>-18,71; 137,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,07; -3,94</t>
+          <t>-52,6; 75,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 63,76</t>
+          <t>-35,29; 61,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 41,37</t>
+          <t>-29,87; 62,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 45,81</t>
+          <t>-16,62; 64,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 7,44</t>
+          <t>-30,65; 42,67</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,91</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,1</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,26</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,36</t>
+          <t>2,32</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 71,62</t>
+          <t>1,22; 13,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 52,14</t>
+          <t>-4,63; 4,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 40,8</t>
+          <t>-1,23; 9,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 60,54</t>
+          <t>-0,99; 9,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 47,55</t>
+          <t>1,26; 9,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 46,96</t>
+          <t>-1,14; 5,9</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>102,66%</t>
+          <t>167,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>62,22%</t>
+          <t>116,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>51,36%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 514,94</t>
+          <t>-4,21; 782,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 348,96</t>
+          <t>-74,18; 318,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 172,65</t>
+          <t>-27,92; 344,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 264,0</t>
+          <t>-21,6; 345,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,07; 181,75</t>
+          <t>14,34; 355,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 191,73</t>
+          <t>-19,87; 232,44</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,08; 26,47</t>
+          <t>1,34; 6,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 3,69</t>
+          <t>-1,44; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 9,84</t>
+          <t>-1,12; 3,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 1,21</t>
+          <t>-2,44; 1,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 14,66</t>
+          <t>0,77; 4,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -1,07</t>
+          <t>-1,41; 2,1</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 57,68</t>
+          <t>16,68; 119,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 8,36</t>
+          <t>-18,71; 80,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 18,29</t>
+          <t>-12,66; 44,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 2,31</t>
+          <t>-25,26; 25,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 28,94</t>
+          <t>8,43; 64,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,03; -2,0</t>
+          <t>-17,7; 32,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P52_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>64.59206261494703</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>40.11493172569609</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>46.19156513560096</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>29.65487951412815</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>54.78842671492892</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>35.05896789823865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 8,38</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 7,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 3,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 0,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 5,09</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 3,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>54.18169475902751</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>29.95670670007137</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>34.75879273996794</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>20.59697503483764</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>46.66682879206348</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>28.17535530731315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>70,06%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>43,69%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,6%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-24,46%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>37,06%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>74.22126986763384</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>54.90514512944552</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>55.876884139481</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>38.66988698986722</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>61.41818320609431</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>44.54046592102412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9,97; 166,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,02; 147,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; 61,5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-48,65; 8,98</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 81,15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 56,1</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>8.540737397922436</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>5.30422909153973</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>4.332591112105785</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.781513616962396</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>5.984678998681021</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.829580104348013</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5.580516685924674</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3.256531469825204</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>2.793881764969195</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1.650436396848475</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.391260431131149</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>2.715146881291221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 6,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 3,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 3,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 3,88</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 4,13</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 2,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>12.99856997331519</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>9.205024077586604</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>6.296689522712339</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.313905834531177</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>7.744304586844237</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.482403399208255</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>35,87%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-10,63%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>18,92%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>51.35133826088254</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>26.16416677317003</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>52.63983999134884</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>41.70835072571861</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>51.95652759488184</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>34.15585864722667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,71; 137,65</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-52,6; 75,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-35,29; 61,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-29,87; 62,34</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 64,88</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 42,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>37.71639639247375</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>13.62595215967287</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>41.82517164189613</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>31.83808677429102</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>43.63102989954213</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>26.03780712274952</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>62.26029915159469</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>40.21495661371646</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>63.69809983844059</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>51.96938899468174</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>60.27914554923554</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>42.36809334136009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 13,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 4,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 9,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 9,86</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 9,67</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 5,9</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>4.980183906513625</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.537467701992476</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>5.078099421248958</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>4.023552345834042</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>5.025079863581108</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.303452433345622</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>167,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>77,59%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>80,26%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>116,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>51,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>2.707312677396654</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.8740661489006323</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>3.194797188486821</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2.440796611149348</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>3.468417317419183</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>2.151752988610994</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 782,34</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-74,18; 318,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-27,92; 344,16</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-21,6; 345,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>14,34; 355,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-19,87; 232,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>8.242045158589033</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>4.90056307072206</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>8.084728247351475</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>6.36844990009953</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>7.039360410750414</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.7962915658362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>73.01467400151</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>44.98240443956642</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>49.96033264082493</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>69.83611539576295</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>60.72323984814057</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>59.26755294327539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 6,51</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 4,15</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 3,02</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 1,67</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 4,06</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 2,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>48.49914378845332</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>17.55621780739524</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>28.41322506292205</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>46.06766043809795</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>45.72992168353596</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>42.06554190067779</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>61,71%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>16,65%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>14,66%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>35,17%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>90.5630257994402</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>72.07898275142108</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>68.94293055444315</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>85.88088645945284</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>74.13960236137592</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>73.50170539151716</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>16,68; 119,35</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-18,71; 80,25</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-12,66; 44,37</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-25,26; 25,09</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>8,43; 64,1</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-17,7; 32,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>17.32069778221964</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>10.67082259107521</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>8.215294666290712</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>11.48359580489376</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>11.77845229229094</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>11.49609353138909</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>6.586681412268947</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>2.761004748346294</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.930067066405873</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>5.021430898611219</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>6.305387154057684</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>5.71605919543447</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>50.68615202177405</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>37.92667301806672</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>19.0085277386389</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>26.63851003784652</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>23.89755304937753</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>21.11693014516436</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>60.13069677741716</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>35.06348735384477</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>48.92360597466167</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>38.65061408003722</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>54.39493940602358</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>36.81544630424384</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>52.61307421376025</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>27.56822327326657</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>40.94442284795195</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>32.05644224831809</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>49.12995033414321</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>31.72413570022476</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>67.08729827954181</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>44.64878467411123</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>56.17245463809675</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>45.76552393049153</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>59.55708169265355</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>42.33178483598484</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>7.307201698870771</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>4.260984623357523</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>4.887723178276249</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>3.861397755338183</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>5.949467686015894</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>4.026703780261897</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>5.23763567048582</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>2.827218829997155</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.630068131528785</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2.767553852110673</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>4.798311847820147</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>3.137093260283682</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>9.692949901675167</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>6.326831152019645</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>6.51903831705031</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>5.182997251417632</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>7.296877371633668</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>5.09086591061585</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
